--- a/data_pulling/team_game_logs_1819/team_game_log_SAC.xlsx
+++ b/data_pulling/team_game_logs_1819/team_game_log_SAC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="121">
   <si>
     <t>game.awayTeamAbbreviation</t>
   </si>
@@ -298,6 +298,9 @@
     <t>CLE</t>
   </si>
   <si>
+    <t>CHI</t>
+  </si>
+  <si>
     <t>2018-10-18T02:00:00.000Z</t>
   </si>
   <si>
@@ -368,6 +371,12 @@
   </si>
   <si>
     <t>2018-12-08T00:30:00.000Z</t>
+  </si>
+  <si>
+    <t>2018-12-09T00:00:00.000Z</t>
+  </si>
+  <si>
+    <t>2018-12-11T01:00:00.000Z</t>
   </si>
 </sst>
 </file>
@@ -725,7 +734,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BV25"/>
+  <dimension ref="A1:BV27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -966,7 +975,7 @@
         <v>47580</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -1190,7 +1199,7 @@
         <v>47591</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -1414,7 +1423,7 @@
         <v>47606</v>
       </c>
       <c r="E4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F4">
         <v>7</v>
@@ -1638,7 +1647,7 @@
         <v>47620</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F5">
         <v>6</v>
@@ -1862,7 +1871,7 @@
         <v>47630</v>
       </c>
       <c r="E6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F6">
         <v>6</v>
@@ -2086,7 +2095,7 @@
         <v>47642</v>
       </c>
       <c r="E7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F7">
         <v>4</v>
@@ -2310,7 +2319,7 @@
         <v>47658</v>
       </c>
       <c r="E8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F8">
         <v>7</v>
@@ -2534,7 +2543,7 @@
         <v>47667</v>
       </c>
       <c r="E9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F9">
         <v>6</v>
@@ -2758,7 +2767,7 @@
         <v>47683</v>
       </c>
       <c r="E10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -2982,7 +2991,7 @@
         <v>47702</v>
       </c>
       <c r="E11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F11">
         <v>4</v>
@@ -3206,7 +3215,7 @@
         <v>47730</v>
       </c>
       <c r="E12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F12">
         <v>5</v>
@@ -3430,7 +3439,7 @@
         <v>47742</v>
       </c>
       <c r="E13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -3654,7 +3663,7 @@
         <v>47752</v>
       </c>
       <c r="E14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F14">
         <v>3</v>
@@ -3878,7 +3887,7 @@
         <v>47766</v>
       </c>
       <c r="E15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F15">
         <v>3</v>
@@ -4102,7 +4111,7 @@
         <v>47789</v>
       </c>
       <c r="E16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -4326,7 +4335,7 @@
         <v>47800</v>
       </c>
       <c r="E17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F17">
         <v>3</v>
@@ -4550,7 +4559,7 @@
         <v>47816</v>
       </c>
       <c r="E18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F18">
         <v>4</v>
@@ -4774,7 +4783,7 @@
         <v>47832</v>
       </c>
       <c r="E19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F19">
         <v>4</v>
@@ -4998,7 +5007,7 @@
         <v>47854</v>
       </c>
       <c r="E20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F20">
         <v>4</v>
@@ -5222,7 +5231,7 @@
         <v>47861</v>
       </c>
       <c r="E21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F21">
         <v>7</v>
@@ -5446,7 +5455,7 @@
         <v>47887</v>
       </c>
       <c r="E22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F22">
         <v>2</v>
@@ -5670,7 +5679,7 @@
         <v>47905</v>
       </c>
       <c r="E23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F23">
         <v>3</v>
@@ -5894,7 +5903,7 @@
         <v>47922</v>
       </c>
       <c r="E24" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F24">
         <v>3</v>
@@ -6118,7 +6127,7 @@
         <v>47941</v>
       </c>
       <c r="E25" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F25">
         <v>5</v>
@@ -6133,10 +6142,10 @@
         <v>5</v>
       </c>
       <c r="J25">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K25">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L25">
         <v>6</v>
@@ -6241,10 +6250,10 @@
         <v>18</v>
       </c>
       <c r="AT25">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AU25">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AV25">
         <v>18</v>
@@ -6262,22 +6271,22 @@
         <v>0</v>
       </c>
       <c r="BA25">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BB25">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="BC25">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="BD25">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BE25">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BF25">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BG25">
         <v>31</v>
@@ -6325,6 +6334,454 @@
         <v>74</v>
       </c>
       <c r="BV25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:74">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26">
+        <v>47948</v>
+      </c>
+      <c r="E26" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26">
+        <v>8</v>
+      </c>
+      <c r="G26">
+        <v>8</v>
+      </c>
+      <c r="H26">
+        <v>8</v>
+      </c>
+      <c r="I26">
+        <v>8</v>
+      </c>
+      <c r="J26">
+        <v>107</v>
+      </c>
+      <c r="K26">
+        <v>107</v>
+      </c>
+      <c r="L26">
+        <v>9</v>
+      </c>
+      <c r="M26">
+        <v>9</v>
+      </c>
+      <c r="N26">
+        <v>13</v>
+      </c>
+      <c r="O26">
+        <v>13</v>
+      </c>
+      <c r="P26">
+        <v>58</v>
+      </c>
+      <c r="Q26">
+        <v>58</v>
+      </c>
+      <c r="R26">
+        <v>29</v>
+      </c>
+      <c r="S26">
+        <v>29</v>
+      </c>
+      <c r="T26">
+        <v>50</v>
+      </c>
+      <c r="U26">
+        <v>32</v>
+      </c>
+      <c r="V26">
+        <v>32</v>
+      </c>
+      <c r="W26">
+        <v>9</v>
+      </c>
+      <c r="X26">
+        <v>9</v>
+      </c>
+      <c r="Y26">
+        <v>28.1</v>
+      </c>
+      <c r="Z26">
+        <v>90</v>
+      </c>
+      <c r="AA26">
+        <v>90</v>
+      </c>
+      <c r="AB26">
+        <v>38</v>
+      </c>
+      <c r="AC26">
+        <v>38</v>
+      </c>
+      <c r="AD26">
+        <v>42.2</v>
+      </c>
+      <c r="AE26">
+        <v>15</v>
+      </c>
+      <c r="AF26">
+        <v>15</v>
+      </c>
+      <c r="AG26">
+        <v>12</v>
+      </c>
+      <c r="AH26">
+        <v>12</v>
+      </c>
+      <c r="AI26">
+        <v>80</v>
+      </c>
+      <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>0</v>
+      </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>0</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AR26">
+        <v>0</v>
+      </c>
+      <c r="AS26">
+        <v>21</v>
+      </c>
+      <c r="AT26">
+        <v>17</v>
+      </c>
+      <c r="AU26">
+        <v>17</v>
+      </c>
+      <c r="AV26">
+        <v>21</v>
+      </c>
+      <c r="AW26">
+        <v>21</v>
+      </c>
+      <c r="AX26">
+        <v>0</v>
+      </c>
+      <c r="AY26">
+        <v>0</v>
+      </c>
+      <c r="AZ26">
+        <v>0</v>
+      </c>
+      <c r="BA26">
+        <v>21</v>
+      </c>
+      <c r="BB26">
+        <v>17</v>
+      </c>
+      <c r="BC26">
+        <v>17</v>
+      </c>
+      <c r="BD26">
+        <v>21</v>
+      </c>
+      <c r="BE26">
+        <v>-10</v>
+      </c>
+      <c r="BF26">
+        <v>-10</v>
+      </c>
+      <c r="BG26">
+        <v>24</v>
+      </c>
+      <c r="BH26">
+        <v>24</v>
+      </c>
+      <c r="BI26">
+        <v>97</v>
+      </c>
+      <c r="BJ26">
+        <v>97</v>
+      </c>
+      <c r="BK26">
+        <v>31</v>
+      </c>
+      <c r="BL26">
+        <v>31</v>
+      </c>
+      <c r="BM26">
+        <v>12</v>
+      </c>
+      <c r="BN26">
+        <v>12</v>
+      </c>
+      <c r="BO26">
+        <v>43</v>
+      </c>
+      <c r="BP26">
+        <v>43</v>
+      </c>
+      <c r="BQ26">
+        <v>0</v>
+      </c>
+      <c r="BR26">
+        <v>1</v>
+      </c>
+      <c r="BS26">
+        <v>0</v>
+      </c>
+      <c r="BT26">
+        <v>0</v>
+      </c>
+      <c r="BU26" t="s">
+        <v>74</v>
+      </c>
+      <c r="BV26">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:74">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27">
+        <v>47963</v>
+      </c>
+      <c r="E27" t="s">
+        <v>120</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <v>4</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+      <c r="I27">
+        <v>4</v>
+      </c>
+      <c r="J27">
+        <v>89</v>
+      </c>
+      <c r="K27">
+        <v>89</v>
+      </c>
+      <c r="L27">
+        <v>16</v>
+      </c>
+      <c r="M27">
+        <v>16</v>
+      </c>
+      <c r="N27">
+        <v>16</v>
+      </c>
+      <c r="O27">
+        <v>16</v>
+      </c>
+      <c r="P27">
+        <v>51</v>
+      </c>
+      <c r="Q27">
+        <v>51</v>
+      </c>
+      <c r="R27">
+        <v>24</v>
+      </c>
+      <c r="S27">
+        <v>24</v>
+      </c>
+      <c r="T27">
+        <v>47.1</v>
+      </c>
+      <c r="U27">
+        <v>37</v>
+      </c>
+      <c r="V27">
+        <v>37</v>
+      </c>
+      <c r="W27">
+        <v>16</v>
+      </c>
+      <c r="X27">
+        <v>16</v>
+      </c>
+      <c r="Y27">
+        <v>43.2</v>
+      </c>
+      <c r="Z27">
+        <v>88</v>
+      </c>
+      <c r="AA27">
+        <v>88</v>
+      </c>
+      <c r="AB27">
+        <v>40</v>
+      </c>
+      <c r="AC27">
+        <v>40</v>
+      </c>
+      <c r="AD27">
+        <v>45.4</v>
+      </c>
+      <c r="AE27">
+        <v>15</v>
+      </c>
+      <c r="AF27">
+        <v>15</v>
+      </c>
+      <c r="AG27">
+        <v>12</v>
+      </c>
+      <c r="AH27">
+        <v>12</v>
+      </c>
+      <c r="AI27">
+        <v>80</v>
+      </c>
+      <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>0</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>0</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>0</v>
+      </c>
+      <c r="AS27">
+        <v>15</v>
+      </c>
+      <c r="AT27">
+        <v>17</v>
+      </c>
+      <c r="AU27">
+        <v>17</v>
+      </c>
+      <c r="AV27">
+        <v>15</v>
+      </c>
+      <c r="AW27">
+        <v>15</v>
+      </c>
+      <c r="AX27">
+        <v>0</v>
+      </c>
+      <c r="AY27">
+        <v>0</v>
+      </c>
+      <c r="AZ27">
+        <v>0</v>
+      </c>
+      <c r="BA27">
+        <v>15</v>
+      </c>
+      <c r="BB27">
+        <v>17</v>
+      </c>
+      <c r="BC27">
+        <v>17</v>
+      </c>
+      <c r="BD27">
+        <v>15</v>
+      </c>
+      <c r="BE27">
+        <v>19</v>
+      </c>
+      <c r="BF27">
+        <v>19</v>
+      </c>
+      <c r="BG27">
+        <v>28</v>
+      </c>
+      <c r="BH27">
+        <v>28</v>
+      </c>
+      <c r="BI27">
+        <v>108</v>
+      </c>
+      <c r="BJ27">
+        <v>108</v>
+      </c>
+      <c r="BK27">
+        <v>32</v>
+      </c>
+      <c r="BL27">
+        <v>32</v>
+      </c>
+      <c r="BM27">
+        <v>10</v>
+      </c>
+      <c r="BN27">
+        <v>10</v>
+      </c>
+      <c r="BO27">
+        <v>42</v>
+      </c>
+      <c r="BP27">
+        <v>42</v>
+      </c>
+      <c r="BQ27">
+        <v>0</v>
+      </c>
+      <c r="BR27">
+        <v>0</v>
+      </c>
+      <c r="BS27">
+        <v>1</v>
+      </c>
+      <c r="BT27">
+        <v>1</v>
+      </c>
+      <c r="BU27" t="s">
+        <v>74</v>
+      </c>
+      <c r="BV27">
         <v>103</v>
       </c>
     </row>
